--- a/Code/Results/Cases/Case_0_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_147/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.735172445994349</v>
+        <v>4.915026000314803</v>
       </c>
       <c r="D2">
-        <v>5.519882073984815</v>
+        <v>6.989327755461555</v>
       </c>
       <c r="E2">
-        <v>7.680351483553703</v>
+        <v>12.21136324542679</v>
       </c>
       <c r="F2">
-        <v>66.10147257959169</v>
+        <v>51.69960667589459</v>
       </c>
       <c r="G2">
-        <v>103.0160494428575</v>
+        <v>70.24302641418548</v>
       </c>
       <c r="H2">
-        <v>25.71263230090632</v>
+        <v>22.73042550784301</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.077876681296341</v>
+        <v>10.31591535233704</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7.115481180326539</v>
+        <v>4.751727070756036</v>
       </c>
       <c r="D3">
-        <v>5.304224921751718</v>
+        <v>6.94668024582052</v>
       </c>
       <c r="E3">
-        <v>7.508191300813258</v>
+        <v>12.23409171536512</v>
       </c>
       <c r="F3">
-        <v>60.99939960588798</v>
+        <v>50.68688522180905</v>
       </c>
       <c r="G3">
-        <v>94.93174379654317</v>
+        <v>68.15417361979223</v>
       </c>
       <c r="H3">
-        <v>23.71222973667854</v>
+        <v>22.44749946884216</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.836538832742933</v>
+        <v>10.32402938806873</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.725579951857534</v>
+        <v>4.650720963416625</v>
       </c>
       <c r="D4">
-        <v>5.173942345817508</v>
+        <v>6.919969065919599</v>
       </c>
       <c r="E4">
-        <v>7.412083904049452</v>
+        <v>12.25054669514366</v>
       </c>
       <c r="F4">
-        <v>57.914973828477</v>
+        <v>50.07575507613</v>
       </c>
       <c r="G4">
-        <v>89.89247718673312</v>
+        <v>66.86935456709689</v>
       </c>
       <c r="H4">
-        <v>22.46680435361525</v>
+        <v>22.28038560189557</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.697447301820575</v>
+        <v>10.33143287524792</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.563920123863944</v>
+        <v>4.609444375193754</v>
       </c>
       <c r="D5">
-        <v>5.121187556200289</v>
+        <v>6.908951855178966</v>
       </c>
       <c r="E5">
-        <v>7.375106044788627</v>
+        <v>12.25787830606863</v>
       </c>
       <c r="F5">
-        <v>56.67564286771101</v>
+        <v>49.8297340621153</v>
       </c>
       <c r="G5">
-        <v>87.81531799355299</v>
+        <v>66.34608098604723</v>
       </c>
       <c r="H5">
-        <v>22.0208635161431</v>
+        <v>22.21400988020374</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.642824443293627</v>
+        <v>10.33505568701512</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.536898805404498</v>
+        <v>4.602585576525016</v>
       </c>
       <c r="D6">
-        <v>5.112443063340811</v>
+        <v>6.907114470020984</v>
       </c>
       <c r="E6">
-        <v>7.369092101116246</v>
+        <v>12.25913345425602</v>
       </c>
       <c r="F6">
-        <v>56.46927295129866</v>
+        <v>49.78907446867012</v>
       </c>
       <c r="G6">
-        <v>87.47317700609655</v>
+        <v>66.25923607101085</v>
       </c>
       <c r="H6">
-        <v>21.94766833468085</v>
+        <v>22.20309418203929</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.633872963470415</v>
+        <v>10.33569374992626</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.723411454212341</v>
+        <v>4.65016466556214</v>
       </c>
       <c r="D7">
-        <v>5.173229742299265</v>
+        <v>6.91982101927862</v>
       </c>
       <c r="E7">
-        <v>7.411576623926221</v>
+        <v>12.25064304016039</v>
       </c>
       <c r="F7">
-        <v>57.89829754579016</v>
+        <v>50.0724244882561</v>
       </c>
       <c r="G7">
-        <v>89.86456425438519</v>
+        <v>66.86229512421839</v>
       </c>
       <c r="H7">
-        <v>22.45990953088974</v>
+        <v>22.27948337183519</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.696702569273818</v>
+        <v>10.33147928492505</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.523183675522302</v>
+        <v>4.85891483970834</v>
       </c>
       <c r="D8">
-        <v>5.444943628020362</v>
+        <v>6.974731901306</v>
       </c>
       <c r="E8">
-        <v>7.618846661958193</v>
+        <v>12.21867975586749</v>
       </c>
       <c r="F8">
-        <v>64.34891696791834</v>
+        <v>51.34840316088701</v>
       </c>
       <c r="G8">
-        <v>100.2409599995064</v>
+        <v>69.52376582335049</v>
       </c>
       <c r="H8">
-        <v>25.02565644462418</v>
+        <v>22.63154162186336</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.992620859351467</v>
+        <v>10.31820871206028</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>9.041178389863413</v>
+        <v>5.2595582775362</v>
       </c>
       <c r="D9">
-        <v>6.007471798360456</v>
+        <v>7.078249757874411</v>
       </c>
       <c r="E9">
-        <v>8.115025855893615</v>
+        <v>12.1759429087526</v>
       </c>
       <c r="F9">
-        <v>77.03654280949102</v>
+        <v>53.92069693107363</v>
       </c>
       <c r="G9">
-        <v>120.2986274797614</v>
+        <v>74.68914700009192</v>
       </c>
       <c r="H9">
-        <v>29.99652106032002</v>
+        <v>23.37132675367857</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.659485827219378</v>
+        <v>10.31152898771418</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.17552790521059</v>
+        <v>5.545156914657711</v>
       </c>
       <c r="D10">
-        <v>6.466788660632941</v>
+        <v>7.15178292079881</v>
       </c>
       <c r="E10">
-        <v>8.562229368594977</v>
+        <v>12.15685119310873</v>
       </c>
       <c r="F10">
-        <v>86.69258208332501</v>
+        <v>55.83388081185367</v>
       </c>
       <c r="G10">
-        <v>135.529425251872</v>
+        <v>78.40704443063163</v>
       </c>
       <c r="H10">
-        <v>33.77773688923251</v>
+        <v>23.94074126928879</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.302274084367545</v>
+        <v>10.31858425944378</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.71540764587848</v>
+        <v>5.672562241758397</v>
       </c>
       <c r="D11">
-        <v>6.697464037405991</v>
+        <v>7.184691684386071</v>
       </c>
       <c r="E11">
-        <v>8.794800003677445</v>
+        <v>12.15086910203892</v>
       </c>
       <c r="F11">
-        <v>91.33217961810487</v>
+        <v>56.70534202190611</v>
       </c>
       <c r="G11">
-        <v>142.8421727522022</v>
+        <v>80.07343736256367</v>
       </c>
       <c r="H11">
-        <v>35.59464115973297</v>
+        <v>24.20446844819923</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.738745289297119</v>
+        <v>10.32442420933877</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.92623066168603</v>
+        <v>5.720401172357911</v>
       </c>
       <c r="D12">
-        <v>6.789763605415179</v>
+        <v>7.197075691130431</v>
       </c>
       <c r="E12">
-        <v>8.888744151423616</v>
+        <v>12.14899488482007</v>
       </c>
       <c r="F12">
-        <v>93.15120450200858</v>
+        <v>57.03519233000467</v>
       </c>
       <c r="G12">
-        <v>145.7087066452891</v>
+        <v>80.70027178156313</v>
       </c>
       <c r="H12">
-        <v>36.30706346345998</v>
+        <v>24.30493087694406</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.909436696487552</v>
+        <v>10.32701619604018</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.88047434450602</v>
+        <v>5.710116953942233</v>
       </c>
       <c r="D13">
-        <v>6.769622506879815</v>
+        <v>7.194412033321694</v>
       </c>
       <c r="E13">
-        <v>8.868211482309446</v>
+        <v>12.1493811004463</v>
       </c>
       <c r="F13">
-        <v>92.75606678378777</v>
+        <v>56.96416486729093</v>
       </c>
       <c r="G13">
-        <v>145.0860425679036</v>
+        <v>80.56546734072859</v>
       </c>
       <c r="H13">
-        <v>36.15230268485234</v>
+        <v>24.28326933068742</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.872378045261492</v>
+        <v>10.32644100748776</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.73260062213384</v>
+        <v>5.676506370124113</v>
       </c>
       <c r="D14">
-        <v>6.704943584969953</v>
+        <v>7.185712083212041</v>
       </c>
       <c r="E14">
-        <v>8.802397591178098</v>
+        <v>12.15070705787024</v>
       </c>
       <c r="F14">
-        <v>91.48037289303706</v>
+        <v>56.73248383876852</v>
       </c>
       <c r="G14">
-        <v>143.0757139611422</v>
+        <v>80.12509472225967</v>
       </c>
       <c r="H14">
-        <v>35.65267913401595</v>
+        <v>24.21272209655803</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.752660060271454</v>
+        <v>10.32462981511141</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.64297361118713</v>
+        <v>5.655864702842619</v>
       </c>
       <c r="D15">
-        <v>6.666044600027438</v>
+        <v>7.180372980330446</v>
       </c>
       <c r="E15">
-        <v>8.762917611650115</v>
+        <v>12.15157024433734</v>
       </c>
       <c r="F15">
-        <v>90.70813731522249</v>
+        <v>56.59054341180219</v>
       </c>
       <c r="G15">
-        <v>141.8587102846454</v>
+        <v>79.85479066053949</v>
       </c>
       <c r="H15">
-        <v>35.35024662704508</v>
+        <v>24.16958492793717</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.680132712709494</v>
+        <v>10.32357002677801</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10.14094035027829</v>
+        <v>5.536776100671642</v>
       </c>
       <c r="D16">
-        <v>6.452282215601514</v>
+        <v>7.149621359237456</v>
       </c>
       <c r="E16">
-        <v>8.547739120367819</v>
+        <v>12.1572967319849</v>
       </c>
       <c r="F16">
-        <v>86.39627230899652</v>
+        <v>55.77692429406164</v>
       </c>
       <c r="G16">
-        <v>135.0623054529813</v>
+        <v>78.29758702373223</v>
       </c>
       <c r="H16">
-        <v>33.66170593622033</v>
+        <v>23.92359369097253</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.274341498677044</v>
+        <v>10.31825573512356</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>9.840690288268881</v>
+        <v>5.463041263961927</v>
       </c>
       <c r="D17">
-        <v>6.327697653654655</v>
+        <v>7.130617509416029</v>
       </c>
       <c r="E17">
-        <v>8.424120001553307</v>
+        <v>12.16150374011408</v>
       </c>
       <c r="F17">
-        <v>83.82886289699596</v>
+        <v>55.2778576065084</v>
       </c>
       <c r="G17">
-        <v>131.0143271856182</v>
+        <v>77.33546145602688</v>
       </c>
       <c r="H17">
-        <v>32.65635649094399</v>
+        <v>23.77383165626324</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.058201468987802</v>
+        <v>10.31567099278868</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.670000377336983</v>
+        <v>5.420396578157549</v>
       </c>
       <c r="D18">
-        <v>6.257935576244296</v>
+        <v>7.119635989793201</v>
       </c>
       <c r="E18">
-        <v>8.355622773988337</v>
+        <v>12.16417776316458</v>
       </c>
       <c r="F18">
-        <v>82.37323603079338</v>
+        <v>54.9909334656147</v>
       </c>
       <c r="G18">
-        <v>128.7187618224585</v>
+        <v>76.77976157835427</v>
       </c>
       <c r="H18">
-        <v>32.08636279270601</v>
+        <v>23.68813951305623</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.970614276868337</v>
+        <v>10.31443178728745</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>9.612487283160299</v>
+        <v>5.40591902672606</v>
       </c>
       <c r="D19">
-        <v>6.234601559216413</v>
+        <v>7.115909073162048</v>
       </c>
       <c r="E19">
-        <v>8.332841234995826</v>
+        <v>12.1651267368822</v>
       </c>
       <c r="F19">
-        <v>81.88342536689605</v>
+        <v>54.8938174179627</v>
       </c>
       <c r="G19">
-        <v>127.9462228602055</v>
+        <v>76.5912339279825</v>
       </c>
       <c r="H19">
-        <v>31.89456190791625</v>
+        <v>23.65920486760308</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.941395023916986</v>
+        <v>10.31405464441411</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>9.872428612904379</v>
+        <v>5.470915061112749</v>
       </c>
       <c r="D20">
-        <v>6.340753856341072</v>
+        <v>7.132645780257617</v>
       </c>
       <c r="E20">
-        <v>8.437000606495761</v>
+        <v>12.16102956398376</v>
       </c>
       <c r="F20">
-        <v>84.09984139988781</v>
+        <v>55.33097343561012</v>
       </c>
       <c r="G20">
-        <v>131.4416247258213</v>
+        <v>77.43812514031173</v>
       </c>
       <c r="H20">
-        <v>32.76246596735361</v>
+        <v>23.78972840227581</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.07462906181396</v>
+        <v>10.3159205137722</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.77582858509183</v>
+        <v>5.686389984818631</v>
       </c>
       <c r="D21">
-        <v>6.723786423640772</v>
+        <v>7.188269580804378</v>
       </c>
       <c r="E21">
-        <v>8.821550473802617</v>
+        <v>12.15030695963393</v>
       </c>
       <c r="F21">
-        <v>91.85309126714162</v>
+        <v>56.80054078356913</v>
       </c>
       <c r="G21">
-        <v>143.6630819575302</v>
+        <v>80.25456119660791</v>
       </c>
       <c r="H21">
-        <v>35.79865095221851</v>
+        <v>24.2334280327006</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.787649900313495</v>
+        <v>10.32515146184243</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>11.40656723703327</v>
+        <v>5.824827398563795</v>
       </c>
       <c r="D22">
-        <v>7.004946459111025</v>
+        <v>7.224169377657851</v>
       </c>
       <c r="E22">
-        <v>9.108897474946618</v>
+        <v>12.14557964693219</v>
       </c>
       <c r="F22">
-        <v>97.31066232202322</v>
+        <v>57.75995940227635</v>
       </c>
       <c r="G22">
-        <v>152.2628383116476</v>
+        <v>82.07058663117161</v>
       </c>
       <c r="H22">
-        <v>37.93636940444023</v>
+        <v>24.52684047650015</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.29889853869425</v>
+        <v>10.33340331570921</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>11.0646738137799</v>
+        <v>5.751172812384066</v>
       </c>
       <c r="D23">
-        <v>6.851076116943484</v>
+        <v>7.205050443610393</v>
       </c>
       <c r="E23">
-        <v>8.951343416778709</v>
+        <v>12.14789325626024</v>
       </c>
       <c r="F23">
-        <v>94.34791111712315</v>
+        <v>57.24809459085031</v>
       </c>
       <c r="G23">
-        <v>147.5944432144658</v>
+        <v>81.10378449634217</v>
       </c>
       <c r="H23">
-        <v>36.77578729610509</v>
+        <v>24.36995355807393</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.021606239436233</v>
+        <v>10.32879542068889</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>9.858073904084666</v>
+        <v>5.467356103685248</v>
       </c>
       <c r="D24">
-        <v>6.334845461385898</v>
+        <v>7.131728973297744</v>
       </c>
       <c r="E24">
-        <v>8.431169380407724</v>
+        <v>12.16124314381209</v>
       </c>
       <c r="F24">
-        <v>83.97727017269224</v>
+        <v>55.30695975762259</v>
       </c>
       <c r="G24">
-        <v>131.2483475989023</v>
+        <v>77.39171881869945</v>
       </c>
       <c r="H24">
-        <v>32.71446965180896</v>
+        <v>23.78254020629612</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.06719369332791</v>
+        <v>10.31580693679109</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.631839786999382</v>
+        <v>5.15248255470209</v>
       </c>
       <c r="D25">
-        <v>5.849904771355554</v>
+        <v>7.050689424940406</v>
       </c>
       <c r="E25">
-        <v>7.968913974308835</v>
+        <v>12.18535364833184</v>
       </c>
       <c r="F25">
-        <v>73.5859651947207</v>
+        <v>53.21934738592501</v>
       </c>
       <c r="G25">
-        <v>114.8501333133865</v>
+        <v>73.30232291026596</v>
       </c>
       <c r="H25">
-        <v>28.64507995385541</v>
+        <v>23.16633331764882</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.467320989491115</v>
+        <v>10.31124678473138</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_147/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915026000314803</v>
+        <v>7.735172445994349</v>
       </c>
       <c r="D2">
-        <v>6.989327755461555</v>
+        <v>5.519882073984739</v>
       </c>
       <c r="E2">
-        <v>12.21136324542679</v>
+        <v>7.680351483553662</v>
       </c>
       <c r="F2">
-        <v>51.69960667589459</v>
+        <v>66.10147257959188</v>
       </c>
       <c r="G2">
-        <v>70.24302641418548</v>
+        <v>103.0160494428578</v>
       </c>
       <c r="H2">
-        <v>22.73042550784301</v>
+        <v>25.71263230090641</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.31591535233704</v>
+        <v>7.077876681296311</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.751727070756036</v>
+        <v>7.115481180326507</v>
       </c>
       <c r="D3">
-        <v>6.94668024582052</v>
+        <v>5.304224921751637</v>
       </c>
       <c r="E3">
-        <v>12.23409171536512</v>
+        <v>7.508191300813277</v>
       </c>
       <c r="F3">
-        <v>50.68688522180905</v>
+        <v>60.99939960588767</v>
       </c>
       <c r="G3">
-        <v>68.15417361979223</v>
+        <v>94.93174379654258</v>
       </c>
       <c r="H3">
-        <v>22.44749946884216</v>
+        <v>23.71222973667841</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.32402938806873</v>
+        <v>6.836538832742926</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.650720963416625</v>
+        <v>6.72557995185765</v>
       </c>
       <c r="D4">
-        <v>6.919969065919599</v>
+        <v>5.173942345817497</v>
       </c>
       <c r="E4">
-        <v>12.25054669514366</v>
+        <v>7.412083904049438</v>
       </c>
       <c r="F4">
-        <v>50.07575507613</v>
+        <v>57.914973828477</v>
       </c>
       <c r="G4">
-        <v>66.86935456709689</v>
+        <v>89.89247718673322</v>
       </c>
       <c r="H4">
-        <v>22.28038560189557</v>
+        <v>22.46680435361525</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.33143287524792</v>
+        <v>6.697447301820504</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.609444375193754</v>
+        <v>6.563920123863889</v>
       </c>
       <c r="D5">
-        <v>6.908951855178966</v>
+        <v>5.12118755620049</v>
       </c>
       <c r="E5">
-        <v>12.25787830606863</v>
+        <v>7.375106044788754</v>
       </c>
       <c r="F5">
-        <v>49.8297340621153</v>
+        <v>56.67564286771102</v>
       </c>
       <c r="G5">
-        <v>66.34608098604723</v>
+        <v>87.81531799355309</v>
       </c>
       <c r="H5">
-        <v>22.21400988020374</v>
+        <v>22.02086351614311</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.33505568701512</v>
+        <v>6.642824443293647</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.602585576525016</v>
+        <v>6.536898805404512</v>
       </c>
       <c r="D6">
-        <v>6.907114470020984</v>
+        <v>5.112443063340902</v>
       </c>
       <c r="E6">
-        <v>12.25913345425602</v>
+        <v>7.369092101116295</v>
       </c>
       <c r="F6">
-        <v>49.78907446867012</v>
+        <v>56.46927295129881</v>
       </c>
       <c r="G6">
-        <v>66.25923607101085</v>
+        <v>87.47317700609689</v>
       </c>
       <c r="H6">
-        <v>22.20309418203929</v>
+        <v>21.9476683346809</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.33569374992626</v>
+        <v>6.633872963470425</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.65016466556214</v>
+        <v>6.723411454212415</v>
       </c>
       <c r="D7">
-        <v>6.91982101927862</v>
+        <v>5.173229742299265</v>
       </c>
       <c r="E7">
-        <v>12.25064304016039</v>
+        <v>7.411576623926251</v>
       </c>
       <c r="F7">
-        <v>50.0724244882561</v>
+        <v>57.89829754579018</v>
       </c>
       <c r="G7">
-        <v>66.86229512421839</v>
+        <v>89.86456425438524</v>
       </c>
       <c r="H7">
-        <v>22.27948337183519</v>
+        <v>22.45990953088977</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.33147928492505</v>
+        <v>6.696702569273806</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.85891483970834</v>
+        <v>7.523183675522273</v>
       </c>
       <c r="D8">
-        <v>6.974731901306</v>
+        <v>5.444943628020368</v>
       </c>
       <c r="E8">
-        <v>12.21867975586749</v>
+        <v>7.618846661958212</v>
       </c>
       <c r="F8">
-        <v>51.34840316088701</v>
+        <v>64.3489169679183</v>
       </c>
       <c r="G8">
-        <v>69.52376582335049</v>
+        <v>100.2409599995063</v>
       </c>
       <c r="H8">
-        <v>22.63154162186336</v>
+        <v>25.02565644462413</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.31820871206028</v>
+        <v>6.992620859351477</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.2595582775362</v>
+        <v>9.041178389863127</v>
       </c>
       <c r="D9">
-        <v>7.078249757874411</v>
+        <v>6.007471798360505</v>
       </c>
       <c r="E9">
-        <v>12.1759429087526</v>
+        <v>8.115025855893613</v>
       </c>
       <c r="F9">
-        <v>53.92069693107363</v>
+        <v>77.03654280949073</v>
       </c>
       <c r="G9">
-        <v>74.68914700009192</v>
+        <v>120.2986274797608</v>
       </c>
       <c r="H9">
-        <v>23.37132675367857</v>
+        <v>29.99652106031989</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.31152898771418</v>
+        <v>7.659485827219349</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.545156914657711</v>
+        <v>10.1755279052107</v>
       </c>
       <c r="D10">
-        <v>7.15178292079881</v>
+        <v>6.466788660632812</v>
       </c>
       <c r="E10">
-        <v>12.15685119310873</v>
+        <v>8.562229368594991</v>
       </c>
       <c r="F10">
-        <v>55.83388081185367</v>
+        <v>86.69258208332522</v>
       </c>
       <c r="G10">
-        <v>78.40704443063163</v>
+        <v>135.5294252518721</v>
       </c>
       <c r="H10">
-        <v>23.94074126928879</v>
+        <v>33.77773688923259</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.31858425944378</v>
+        <v>8.302274084367554</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.672562241758397</v>
+        <v>10.71540764587854</v>
       </c>
       <c r="D11">
-        <v>7.184691684386071</v>
+        <v>6.697464037405782</v>
       </c>
       <c r="E11">
-        <v>12.15086910203892</v>
+        <v>8.794800003677466</v>
       </c>
       <c r="F11">
-        <v>56.70534202190611</v>
+        <v>91.33217961810435</v>
       </c>
       <c r="G11">
-        <v>80.07343736256367</v>
+        <v>142.8421727522012</v>
       </c>
       <c r="H11">
-        <v>24.20446844819923</v>
+        <v>35.59464115973276</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.32442420933877</v>
+        <v>8.738745289297043</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.720401172357911</v>
+        <v>10.92623066168585</v>
       </c>
       <c r="D12">
-        <v>7.197075691130431</v>
+        <v>6.789763605415216</v>
       </c>
       <c r="E12">
-        <v>12.14899488482007</v>
+        <v>8.888744151423666</v>
       </c>
       <c r="F12">
-        <v>57.03519233000467</v>
+        <v>93.15120450200854</v>
       </c>
       <c r="G12">
-        <v>80.70027178156313</v>
+        <v>145.7087066452889</v>
       </c>
       <c r="H12">
-        <v>24.30493087694406</v>
+        <v>36.30706346345992</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.32701619604018</v>
+        <v>8.909436696487512</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.710116953942233</v>
+        <v>10.88047434450582</v>
       </c>
       <c r="D13">
-        <v>7.194412033321694</v>
+        <v>6.769622506879745</v>
       </c>
       <c r="E13">
-        <v>12.1493811004463</v>
+        <v>8.868211482309464</v>
       </c>
       <c r="F13">
-        <v>56.96416486729093</v>
+        <v>92.75606678378679</v>
       </c>
       <c r="G13">
-        <v>80.56546734072859</v>
+        <v>145.0860425679021</v>
       </c>
       <c r="H13">
-        <v>24.28326933068742</v>
+        <v>36.1523026848519</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.32644100748776</v>
+        <v>8.872378045261399</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.676506370124113</v>
+        <v>10.73260062213383</v>
       </c>
       <c r="D14">
-        <v>7.185712083212041</v>
+        <v>6.704943584969876</v>
       </c>
       <c r="E14">
-        <v>12.15070705787024</v>
+        <v>8.802397591178137</v>
       </c>
       <c r="F14">
-        <v>56.73248383876852</v>
+        <v>91.48037289303713</v>
       </c>
       <c r="G14">
-        <v>80.12509472225967</v>
+        <v>143.0757139611424</v>
       </c>
       <c r="H14">
-        <v>24.21272209655803</v>
+        <v>35.65267913401594</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.32462981511141</v>
+        <v>8.752660060271459</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.655864702842619</v>
+        <v>10.64297361118724</v>
       </c>
       <c r="D15">
-        <v>7.180372980330446</v>
+        <v>6.666044600027286</v>
       </c>
       <c r="E15">
-        <v>12.15157024433734</v>
+        <v>8.762917611650151</v>
       </c>
       <c r="F15">
-        <v>56.59054341180219</v>
+        <v>90.70813731522264</v>
       </c>
       <c r="G15">
-        <v>79.85479066053949</v>
+        <v>141.8587102846456</v>
       </c>
       <c r="H15">
-        <v>24.16958492793717</v>
+        <v>35.35024662704509</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.32357002677801</v>
+        <v>8.680132712709508</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.536776100671642</v>
+        <v>10.14094035027817</v>
       </c>
       <c r="D16">
-        <v>7.149621359237456</v>
+        <v>6.452282215601471</v>
       </c>
       <c r="E16">
-        <v>12.1572967319849</v>
+        <v>8.547739120367783</v>
       </c>
       <c r="F16">
-        <v>55.77692429406164</v>
+        <v>86.39627230899679</v>
       </c>
       <c r="G16">
-        <v>78.29758702373223</v>
+        <v>135.0623054529819</v>
       </c>
       <c r="H16">
-        <v>23.92359369097253</v>
+        <v>33.66170593622047</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.31825573512356</v>
+        <v>8.274341498677087</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.463041263961927</v>
+        <v>9.840690288268911</v>
       </c>
       <c r="D17">
-        <v>7.130617509416029</v>
+        <v>6.327697653654712</v>
       </c>
       <c r="E17">
-        <v>12.16150374011408</v>
+        <v>8.424120001553316</v>
       </c>
       <c r="F17">
-        <v>55.2778576065084</v>
+        <v>83.82886289699584</v>
       </c>
       <c r="G17">
-        <v>77.33546145602688</v>
+        <v>131.014327185618</v>
       </c>
       <c r="H17">
-        <v>23.77383165626324</v>
+        <v>32.65635649094397</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.31567099278868</v>
+        <v>8.058201468987804</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.420396578157549</v>
+        <v>9.670000377336956</v>
       </c>
       <c r="D18">
-        <v>7.119635989793201</v>
+        <v>6.257935576244288</v>
       </c>
       <c r="E18">
-        <v>12.16417776316458</v>
+        <v>8.355622773988369</v>
       </c>
       <c r="F18">
-        <v>54.9909334656147</v>
+        <v>82.37323603079383</v>
       </c>
       <c r="G18">
-        <v>76.77976157835427</v>
+        <v>128.7187618224592</v>
       </c>
       <c r="H18">
-        <v>23.68813951305623</v>
+        <v>32.08636279270614</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.31443178728745</v>
+        <v>7.970614276868342</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.40591902672606</v>
+        <v>9.61248728316037</v>
       </c>
       <c r="D19">
-        <v>7.115909073162048</v>
+        <v>6.234601559216324</v>
       </c>
       <c r="E19">
-        <v>12.1651267368822</v>
+        <v>8.332841234995826</v>
       </c>
       <c r="F19">
-        <v>54.8938174179627</v>
+        <v>81.88342536689591</v>
       </c>
       <c r="G19">
-        <v>76.5912339279825</v>
+        <v>127.946222860205</v>
       </c>
       <c r="H19">
-        <v>23.65920486760308</v>
+        <v>31.89456190791619</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.31405464441411</v>
+        <v>7.941395023916983</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.470915061112749</v>
+        <v>9.872428612904535</v>
       </c>
       <c r="D20">
-        <v>7.132645780257617</v>
+        <v>6.34075385634118</v>
       </c>
       <c r="E20">
-        <v>12.16102956398376</v>
+        <v>8.43700060649571</v>
       </c>
       <c r="F20">
-        <v>55.33097343561012</v>
+        <v>84.0998413998885</v>
       </c>
       <c r="G20">
-        <v>77.43812514031173</v>
+        <v>131.4416247258226</v>
       </c>
       <c r="H20">
-        <v>23.78972840227581</v>
+        <v>32.76246596735388</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.3159205137722</v>
+        <v>8.074629061813987</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.686389984818631</v>
+        <v>10.77582858509177</v>
       </c>
       <c r="D21">
-        <v>7.188269580804378</v>
+        <v>6.723786423640718</v>
       </c>
       <c r="E21">
-        <v>12.15030695963393</v>
+        <v>8.821550473802631</v>
       </c>
       <c r="F21">
-        <v>56.80054078356913</v>
+        <v>91.85309126714235</v>
       </c>
       <c r="G21">
-        <v>80.25456119660791</v>
+        <v>143.6630819575313</v>
       </c>
       <c r="H21">
-        <v>24.2334280327006</v>
+        <v>35.79865095221882</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.32515146184243</v>
+        <v>8.787649900313484</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.824827398563795</v>
+        <v>11.40656723703319</v>
       </c>
       <c r="D22">
-        <v>7.224169377657851</v>
+        <v>7.004946459110818</v>
       </c>
       <c r="E22">
-        <v>12.14557964693219</v>
+        <v>9.108897474946637</v>
       </c>
       <c r="F22">
-        <v>57.75995940227635</v>
+        <v>97.31066232202249</v>
       </c>
       <c r="G22">
-        <v>82.07058663117161</v>
+        <v>152.2628383116462</v>
       </c>
       <c r="H22">
-        <v>24.52684047650015</v>
+        <v>37.93636940443992</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.33340331570921</v>
+        <v>9.298898538694214</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.751172812384066</v>
+        <v>11.06467381378005</v>
       </c>
       <c r="D23">
-        <v>7.205050443610393</v>
+        <v>6.85107611694343</v>
       </c>
       <c r="E23">
-        <v>12.14789325626024</v>
+        <v>8.951343416778739</v>
       </c>
       <c r="F23">
-        <v>57.24809459085031</v>
+        <v>94.34791111712383</v>
       </c>
       <c r="G23">
-        <v>81.10378449634217</v>
+        <v>147.594443214467</v>
       </c>
       <c r="H23">
-        <v>24.36995355807393</v>
+        <v>36.77578729610535</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.32879542068889</v>
+        <v>9.021606239436277</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.467356103685248</v>
+        <v>9.858073904084765</v>
       </c>
       <c r="D24">
-        <v>7.131728973297744</v>
+        <v>6.334845461385949</v>
       </c>
       <c r="E24">
-        <v>12.16124314381209</v>
+        <v>8.431169380407741</v>
       </c>
       <c r="F24">
-        <v>55.30695975762259</v>
+        <v>83.97727017269251</v>
       </c>
       <c r="G24">
-        <v>77.39171881869945</v>
+        <v>131.2483475989027</v>
       </c>
       <c r="H24">
-        <v>23.78254020629612</v>
+        <v>32.71446965180906</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.31580693679109</v>
+        <v>8.067193693327921</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.15248255470209</v>
+        <v>8.631839786999565</v>
       </c>
       <c r="D25">
-        <v>7.050689424940406</v>
+        <v>5.849904771355499</v>
       </c>
       <c r="E25">
-        <v>12.18535364833184</v>
+        <v>7.968913974308824</v>
       </c>
       <c r="F25">
-        <v>53.21934738592501</v>
+        <v>73.58596519472115</v>
       </c>
       <c r="G25">
-        <v>73.30232291026596</v>
+        <v>114.8501333133872</v>
       </c>
       <c r="H25">
-        <v>23.16633331764882</v>
+        <v>28.64507995385564</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.31124678473138</v>
+        <v>7.467320989491112</v>
       </c>
       <c r="L25">
         <v>0</v>
